--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A39686-BAFF-4B90-B672-5E1444D12E9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonfly/Documents/scan_ip/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55134737-9E6E-3E49-A479-06620CA3F183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7524" xr2:uid="{0E922DF3-AA5B-4714-95F4-706A488422E4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="7520" xr2:uid="{0E922DF3-AA5B-4714-95F4-706A488422E4}"/>
   </bookViews>
   <sheets>
     <sheet name="danh sách app và domain" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
   <si>
     <t>PHẦN NÀY LẤY NGUYÊN TỪ DANH SÁCH APP ID DO TTPT PM GỬI</t>
   </si>
@@ -515,9 +530,6 @@
   </si>
   <si>
     <t>DBA bổ sung whitelist IP theo biểu mẫu đã gửi từ trước.</t>
-  </si>
-  <si>
-    <t>thông tin về domain để xác định IP</t>
   </si>
   <si>
     <t>abc.vietinbank.vn</t>
@@ -595,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,15 +882,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -888,7 +900,7 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,13 +952,13 @@
     <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,112 +979,111 @@
     <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1435,33 +1446,29 @@
   <dimension ref="A1:BG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3:AX3"/>
+      <selection activeCell="AS2" sqref="AS2:AX2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="69" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="69"/>
-    <col min="4" max="4" width="0" style="69" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="69"/>
-    <col min="6" max="18" width="0" style="69" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="69"/>
-    <col min="20" max="24" width="0" style="69" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="69"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="8.88671875" style="42"/>
-    <col min="30" max="30" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="8.88671875" style="42"/>
+    <col min="28" max="29" width="8.83203125" style="41"/>
+    <col min="30" max="30" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" style="41"/>
     <col min="33" max="44" width="0" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="12.33203125" customWidth="1"/>
     <col min="47" max="47" width="13.33203125" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" customWidth="1"/>
-    <col min="49" max="49" width="14.5546875" customWidth="1"/>
-    <col min="50" max="50" width="19.44140625" customWidth="1"/>
+    <col min="48" max="48" width="13.83203125" customWidth="1"/>
+    <col min="49" max="49" width="14.5" customWidth="1"/>
+    <col min="50" max="50" width="19.5" customWidth="1"/>
     <col min="51" max="61" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="5" customFormat="1">
+    <row r="1" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1491,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="43"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -1507,17 +1514,17 @@
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="35"/>
+      <c r="AF1" s="34"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
@@ -1546,50 +1553,50 @@
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
     </row>
-    <row r="2" spans="1:59" s="5" customFormat="1" ht="24">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:59" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="43"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1612,17 +1619,17 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35" t="s">
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="35"/>
+      <c r="AF2" s="34"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1637,14 +1644,12 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
@@ -1655,26 +1660,26 @@
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
     </row>
-    <row r="3" spans="1:59" s="5" customFormat="1" ht="41.4">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:59" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1683,31 +1688,31 @@
       <c r="I3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="55" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -1722,13 +1727,13 @@
       <c r="V3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="52" t="s">
+      <c r="W3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="52" t="s">
+      <c r="X3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="52" t="s">
+      <c r="Y3" s="51" t="s">
         <v>38</v>
       </c>
       <c r="Z3" s="9" t="s">
@@ -1737,19 +1742,19 @@
       <c r="AA3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AB3" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AD3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AE3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AF3" s="37" t="s">
         <v>45</v>
       </c>
       <c r="AG3" s="10" t="s">
@@ -1788,9 +1793,7 @@
       <c r="AR3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AS3" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="AS3" s="13"/>
       <c r="AT3" s="13" t="s">
         <v>59</v>
       </c>
@@ -1834,26 +1837,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="19" customFormat="1" ht="57.6">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:59" s="19" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -1862,31 +1865,31 @@
       <c r="I4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="55" t="s">
         <v>89</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -1901,13 +1904,13 @@
       <c r="V4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="52" t="s">
+      <c r="W4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="X4" s="52" t="s">
+      <c r="X4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="52" t="s">
+      <c r="Y4" s="51" t="s">
         <v>95</v>
       </c>
       <c r="Z4" s="15" t="s">
@@ -1916,19 +1919,19 @@
       <c r="AA4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AC4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="AE4" s="37" t="s">
+      <c r="AE4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="37" t="s">
         <v>101</v>
       </c>
       <c r="AG4" s="14" t="s">
@@ -2003,24 +2006,24 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="5" customFormat="1" ht="100.8">
-      <c r="A5" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="1:59" s="5" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>121</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -2029,27 +2032,27 @@
       <c r="I5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="62"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="62">
         <v>42006</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="60" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="57"/>
       <c r="S5" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T5" s="21" t="s">
         <v>127</v>
@@ -2060,13 +2063,13 @@
       <c r="V5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="64" t="s">
+      <c r="W5" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="65" t="s">
+      <c r="Y5" s="64" t="s">
         <v>129</v>
       </c>
       <c r="Z5" s="23" t="s">
@@ -2075,17 +2078,17 @@
       <c r="AA5" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" s="39" t="s">
+      <c r="AB5" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AC5" s="39" t="s">
+      <c r="AC5" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39" t="s">
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" s="40"/>
+      <c r="AF5" s="39"/>
       <c r="AG5" s="24">
         <v>2025</v>
       </c>
@@ -2111,16 +2114,16 @@
         <v>136</v>
       </c>
       <c r="AT5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU5" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="AU5" s="28" t="s">
-        <v>164</v>
-      </c>
       <c r="AV5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW5" s="28" t="s">
         <v>163</v>
-      </c>
-      <c r="AW5" s="28" t="s">
-        <v>164</v>
       </c>
       <c r="AX5" s="28"/>
       <c r="AY5" s="28"/>
@@ -2133,69 +2136,69 @@
       <c r="BF5" s="24"/>
       <c r="BG5" s="24"/>
     </row>
-    <row r="6" spans="1:59" s="5" customFormat="1" ht="86.4">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:59" s="5" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="e">
+      <c r="B6" s="65"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="59" t="e">
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="68"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="63" t="e">
+      <c r="N6" s="62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="60" t="s">
+      <c r="O6" s="57"/>
+      <c r="P6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="58"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="57"/>
       <c r="S6" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W6" s="68" t="s">
+      <c r="W6" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="X6" s="68" t="s">
+      <c r="X6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Y6" s="65" t="e">
+      <c r="Y6" s="64" t="e">
         <v>#N/A</v>
       </c>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
-      <c r="AB6" s="39" t="s">
+      <c r="AB6" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" s="39" t="s">
+      <c r="AC6" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41" t="s">
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AF6" s="40"/>
+      <c r="AF6" s="39"/>
       <c r="AG6" s="24">
         <v>2025</v>
       </c>
@@ -2231,18 +2234,18 @@
       <c r="BF6" s="29"/>
       <c r="BG6" s="29"/>
     </row>
-    <row r="7" spans="1:59" s="5" customFormat="1" ht="120">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59" t="s">
+    <row r="7" spans="1:59" s="5" customFormat="1" ht="130" x14ac:dyDescent="0.2">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="59" t="s">
         <v>143</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -2251,33 +2254,33 @@
       <c r="I7" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="62"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="62">
         <v>42008</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="59">
         <v>247</v>
       </c>
-      <c r="R7" s="58" t="s">
+      <c r="R7" s="57" t="s">
         <v>149</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T7" s="21" t="s">
         <v>150</v>
@@ -2288,13 +2291,13 @@
       <c r="V7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W7" s="61" t="s">
+      <c r="W7" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="61" t="s">
+      <c r="X7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="Y7" s="65" t="s">
+      <c r="Y7" s="64" t="s">
         <v>153</v>
       </c>
       <c r="Z7" s="22" t="s">
@@ -2303,17 +2306,17 @@
       <c r="AA7" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AB7" s="39" t="s">
+      <c r="AB7" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="39" t="s">
+      <c r="AC7" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39" t="s">
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="AF7" s="40"/>
+      <c r="AF7" s="39"/>
       <c r="AG7" s="24">
         <v>2025</v>
       </c>
@@ -2389,38 +2392,38 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2437,19 +2440,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.8">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2470,50 +2473,50 @@
       <c r="G2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="49" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>179</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="57" t="s">
-        <v>165</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="57"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="56"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A6">

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonfly/Documents/scan_ip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11162E10-0142-7E45-8E02-61DA80E7B967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA3414-E0E8-D240-BFD1-F97698009DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{0E922DF3-AA5B-4714-95F4-706A488422E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>PHẦN NÀY LẤY NGUYÊN TỪ DANH SÁCH APP ID DO TTPT PM GỬI</t>
   </si>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>pri-smsb-db</t>
-  </si>
-  <si>
-    <t>abc.vietinbank.vn</t>
-  </si>
-  <si>
-    <t>hrapp.icbv.com</t>
   </si>
   <si>
     <t>X006</t>
@@ -242,6 +236,30 @@
   </si>
   <si>
     <t>github.com</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>24h.vn</t>
+  </si>
+  <si>
+    <t>apple.com</t>
+  </si>
+  <si>
+    <t>wikipedia.com</t>
+  </si>
+  <si>
+    <t>shopee.vn</t>
+  </si>
+  <si>
+    <t>tiktok.com</t>
+  </si>
+  <si>
+    <t>quora.com</t>
+  </si>
+  <si>
+    <t>bing.com</t>
   </si>
 </sst>
 </file>
@@ -877,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B1F19-64BE-4561-8C74-74087608BBB1}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -969,20 +987,20 @@
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>25</v>
@@ -1012,16 +1030,16 @@
         <v>31</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="V2" s="12"/>
     </row>
@@ -1036,7 +1054,7 @@
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="31" t="e">
         <v>#N/A</v>
@@ -1058,11 +1076,17 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
       <c r="V3" s="14"/>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" ht="26" x14ac:dyDescent="0.2">
@@ -1074,7 +1098,7 @@
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>35</v>
@@ -1104,17 +1128,18 @@
         <v>39</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="V4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="R5" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A3">
@@ -1147,29 +1172,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1228,19 +1253,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1248,12 +1273,12 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonfly/Documents/scan_ip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA3414-E0E8-D240-BFD1-F97698009DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC5718-3C4C-9547-868A-4EE109EBA323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{0E922DF3-AA5B-4714-95F4-706A488422E4}"/>
   </bookViews>
@@ -256,10 +256,10 @@
     <t>tiktok.com</t>
   </si>
   <si>
-    <t>quora.com</t>
-  </si>
-  <si>
     <t>bing.com</t>
+  </si>
+  <si>
+    <t>x.com</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B1F19-64BE-4561-8C74-74087608BBB1}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1039,7 @@
         <v>62</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" s="12"/>
     </row>
@@ -1137,7 +1137,7 @@
         <v>64</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V4" s="12"/>
     </row>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonfly/Documents/scan_ip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC5718-3C4C-9547-868A-4EE109EBA323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC27B7-7223-2A44-8058-DE41DA4AE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{0E922DF3-AA5B-4714-95F4-706A488422E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>PHẦN NÀY LẤY NGUYÊN TỪ DANH SÁCH APP ID DO TTPT PM GỬI</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>youtube.com</t>
-  </si>
-  <si>
-    <t>24h.vn</t>
   </si>
   <si>
     <t>apple.com</t>
@@ -897,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B1F19-64BE-4561-8C74-74087608BBB1}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1036,10 +1033,10 @@
         <v>59</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V2" s="12"/>
     </row>
@@ -1079,10 +1076,10 @@
         <v>56</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>58</v>
@@ -1131,13 +1128,13 @@
         <v>57</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="V4" s="12"/>
     </row>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonfly/Documents/scan_ip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC27B7-7223-2A44-8058-DE41DA4AE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536BA915-6373-BC47-9C63-E997333CEA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{0E922DF3-AA5B-4714-95F4-706A488422E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>PHẦN NÀY LẤY NGUYÊN TỪ DANH SÁCH APP ID DO TTPT PM GỬI</t>
   </si>
@@ -238,15 +238,9 @@
     <t>github.com</t>
   </si>
   <si>
-    <t>youtube.com</t>
-  </si>
-  <si>
     <t>apple.com</t>
   </si>
   <si>
-    <t>wikipedia.com</t>
-  </si>
-  <si>
     <t>shopee.vn</t>
   </si>
   <si>
@@ -256,7 +250,7 @@
     <t>bing.com</t>
   </si>
   <si>
-    <t>x.com</t>
+    <t>dsfdfds.sdgdg</t>
   </si>
 </sst>
 </file>
@@ -894,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B1F19-64BE-4561-8C74-74087608BBB1}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1030,13 +1024,13 @@
         <v>55</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="V2" s="12"/>
     </row>
@@ -1076,10 +1070,10 @@
         <v>56</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>58</v>
@@ -1128,13 +1122,13 @@
         <v>57</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V4" s="12"/>
     </row>
